--- a/Data/Output/output_datos_buscar.xlsx
+++ b/Data/Output/output_datos_buscar.xlsx
@@ -7,6 +7,7 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Productos" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Productos Filtrados" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -46,64 +47,73 @@
     <x:t>https://www.amazon.com/-/es/SAMSUNG-adaptador-microSDXC-MB-ME256KA-AM/dp/B09B1GXM16/?_encoding=UTF8&amp;pd_rd_w=AwyqZ&amp;content-id=amzn1.sym.10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_p=10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_r=2EKX99B49VGGRQT8FTMG&amp;pd_rd_wg=Ubz32&amp;pd_rd_r=33df8239-3efa-425c-a17c-d80ff98a173b&amp;ref_=pd_gw_exports_top_sellers_unrec</x:t>
   </x:si>
   <x:si>
+    <x:t>27311</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KSIPZE Tira de luces LED de 100 pies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/-/es/sincronizaci%C3%B3n-aplicaci%C3%B3n-inteligente-dormitorio-iluminaci%C3%B3n/dp/B09V366BDY/ref=sr_1_5?_encoding=UTF8&amp;content-id=amzn1.sym.7738c60e-a1c7-4678-9812-5d82959d511c&amp;keywords=strip+lighting&amp;pd_rd_r=a61aa239-6f17-4b90-b50e-30ac73d896ec&amp;pd_rd_w=GCgMp&amp;pd_rd_wg=8Tbic&amp;pf_rd_p=7738c60e-a1c7-4678-9812-5d82959d511c&amp;pf_rd_r=WXPCKCN6VR02D770X6QB&amp;qid=1691511023&amp;sr=8-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Black &amp; Decker Horno tostador</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Black-Decker-Horno-tostador-Posiciones/dp/B0043E6PLC/ref=sr_1_2_sspa?__mk_es_US=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=294JUCGTJ8SVX&amp;keywords=oven&amp;qid=1691511097&amp;sprefix=ov%2Caps%2C210&amp;sr=8-2-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XFX Speedster SWFT 210 Radeon RX 6600 CORE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/-/es/Speedster-SWFT-Radeon-6600-CORE/dp/B09HHLX543/?_encoding=UTF8&amp;pd_rd_w=NQ3Jj&amp;content-id=amzn1.sym.10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_p=10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_r=H7T3R6A6NRXSEGA806SJ&amp;pd_rd_wg=VsEIi&amp;pd_rd_r=8e02ff95-d2c0-4b6f-a03f-3c0e37c5d72b&amp;ref_=pd_gw_exports_top_sellers_unrec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flopping Fish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Flopping-Fish-interactivo-movimiento-aburrimiento/dp/B085YFH3MH/ref=sr_1_4_sspa?__mk_es_US=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=31VKK32KHBVT2&amp;keywords=cat+nip&amp;qid=1691524900&amp;sprefix=cat+nip%2Caps%2C236&amp;sr=8-4-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</x:t>
+  </x:si>
+  <x:si>
     <x:t>-</x:t>
   </x:si>
   <x:si>
-    <x:t>KSIPZE Tira de luces LED de 100 pies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.amazon.com/-/es/sincronizaci%C3%B3n-aplicaci%C3%B3n-inteligente-dormitorio-iluminaci%C3%B3n/dp/B09V366BDY/ref=sr_1_5?_encoding=UTF8&amp;content-id=amzn1.sym.7738c60e-a1c7-4678-9812-5d82959d511c&amp;keywords=strip+lighting&amp;pd_rd_r=a61aa239-6f17-4b90-b50e-30ac73d896ec&amp;pd_rd_w=GCgMp&amp;pd_rd_wg=8Tbic&amp;pf_rd_p=7738c60e-a1c7-4678-9812-5d82959d511c&amp;pf_rd_r=WXPCKCN6VR02D770X6QB&amp;qid=1691511023&amp;sr=8-5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27311</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Black &amp; Decker Horno tostador</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.amazon.com/Black-Decker-Horno-tostador-Posiciones/dp/B0043E6PLC/ref=sr_1_2_sspa?__mk_es_US=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=294JUCGTJ8SVX&amp;keywords=oven&amp;qid=1691511097&amp;sprefix=ov%2Caps%2C210&amp;sr=8-2-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XFX Speedster SWFT 210 Radeon RX 6600 CORE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.amazon.com/-/es/Speedster-SWFT-Radeon-6600-CORE/dp/B09HHLX543/?_encoding=UTF8&amp;pd_rd_w=NQ3Jj&amp;content-id=amzn1.sym.10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_p=10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_r=H7T3R6A6NRXSEGA806SJ&amp;pd_rd_wg=VsEIi&amp;pd_rd_r=8e02ff95-d2c0-4b6f-a03f-3c0e37c5d72b&amp;ref_=pd_gw_exports_top_sellers_unrec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83794</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flopping Fish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.amazon.com/Flopping-Fish-interactivo-movimiento-aburrimiento/dp/B085YFH3MH/ref=sr_1_4_sspa?__mk_es_US=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=31VKK32KHBVT2&amp;keywords=cat+nip&amp;qid=1691524900&amp;sprefix=cat+nip%2Caps%2C236&amp;sr=8-4-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Classical Piano Sheet Music</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/Masterworks-Publishing/dp/B09XDKH164/ref=sr_1_4_sspa?__mk_es_US=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=LP1VB31Z5UX5&amp;keywords=sheet+music&amp;qid=1691524986&amp;sprefix=sheet+musi%2Caps%2C205&amp;sr=8-4-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</x:t>
   </x:si>
   <x:si>
+    <x:t>14368</x:t>
+  </x:si>
+  <x:si>
     <x:t>Mueller 7-inch Meat Cleaver Knife</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/SS-77/dp/B08BX7FMQN/ref=sxin_16_pa_sp_search_thematic_sspa?__mk_es_US=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;_encoding=UTF8&amp;content-id=amzn1.sym.1c86ab1a-a73c-4131-85f1-15bd92ae152d%3Aamzn1.sym.1c86ab1a-a73c-4131-85f1-15bd92ae152d&amp;crid=1I6JCWDEKEH2U&amp;cv_ct_cx=home+and+kitchen&amp;keywords=hogar+y+cocina&amp;pd_rd_i=B08BX7FMQN&amp;pd_rd_r=9e6d404a-6a8f-42eb-b5d8-c1690bcb9052&amp;pd_rd_w=9oCTs&amp;pd_rd_wg=1Erix&amp;pf_rd_p=1c86ab1a-a73c-4131-85f1-15bd92ae152d&amp;pf_rd_r=VD71XTE1EH7WYGT6DQ1T&amp;qid=1691525059&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=hogar%2Caps%2C278&amp;sr=1-2-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM&amp;psc=1&amp;smid=A8I6IE7ASKFON</x:t>
   </x:si>
   <x:si>
+    <x:t>14889</x:t>
+  </x:si>
+  <x:si>
     <x:t>Utopia Towels 6 Pack Premium Hand Towels Set</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.amazon.com/Utopia-Towels-Premium-Grey-Hand/dp/B083KKF8F8/ref=sr_1_1_sspa?crid=1KDZABCENUGOT&amp;keywords=hand%2Btowel&amp;qid=1691525294&amp;sprefix=hand%2Btowe%2Caps%2C290&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
   </x:si>
   <x:si>
-    <x:t>14889</x:t>
+    <x:t>17124</x:t>
   </x:si>
   <x:si>
     <x:t>Amazon Basics Neoprene Workout Dumbbell</x:t>
@@ -112,7 +122,76 @@
     <x:t>https://www.amazon.com/AmazonBasics-Pound-Neoprene-Dumbbells-Weights/dp/B01LR5RO5U/ref=sxin_15_pa_sp_search_thematic_sspa?content-id=amzn1.sym.abea0cd6-ddf4-4d67-9781-9599c1d665fc%3Aamzn1.sym.abea0cd6-ddf4-4d67-9781-9599c1d665fc&amp;crid=D36RJAA1OIUT&amp;cv_ct_cx=dumbbell&amp;keywords=dumbbell&amp;pd_rd_i=B01LR5RO5U&amp;pd_rd_r=b59ff95a-4508-49c9-9897-dad754d12d9d&amp;pd_rd_w=rGjeG&amp;pd_rd_wg=ftPht&amp;pf_rd_p=abea0cd6-ddf4-4d67-9781-9599c1d665fc&amp;pf_rd_r=QBR7AM504SS6NY909P4K&amp;qid=1691525363&amp;sbo=EO%2BcdOgoisx3waG5xqcZQA%3D%3D&amp;sprefix=dumbe%2Caps%2C209&amp;sr=1-4-0cc546a2-7bf2-4d0e-b4ad-0f0d9092fdfc-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM&amp;psc=1</x:t>
   </x:si>
   <x:si>
-    <x:t>29.</x:t>
+    <x:t>Google Pixel 7a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Google-Pixel-7a-Unlocked-Smartphone/dp/B0BZ9T8R41/ref=sr_1_1_sspa?crid=2PWFCK2DVYVOQ&amp;keywords=nothing%2Bphone&amp;qid=1691525818&amp;sprefix=nothing%2Bpho%2Caps%2C266&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>464644</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flameless LED Tea Light Candles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Flameless-Vivii-Battery-powered-Unscented-Tealights/dp/B01MQ1Q3R1/?_encoding=UTF8&amp;pd_rd_w=uLS6o&amp;content-id=amzn1.sym.223027c6-8030-47e4-a6f7-fd0fd07387a6&amp;pf_rd_p=223027c6-8030-47e4-a6f7-fd0fd07387a6&amp;pf_rd_r=WS4CNQY63AAD8M4BYCGF&amp;pd_rd_wg=d5aW3&amp;pd_rd_r=98bf7399-ae8f-4dcd-b8b0-666649e2a0fc&amp;ref_=pd_gw_unk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S*MAX Gaming Chair</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/MAX-Footrest-Ergonomic-Computer-Breathable/dp/B09CM9VM9C/ref=sr_1_3_sspa?_encoding=UTF8&amp;content-id=amzn1.sym.12129333-2117-4490-9c17-6d31baf0582a&amp;keywords=gaming%2Bchairs&amp;pd_rd_r=47a10829-9684-47a2-932a-5a8eb6c209bb&amp;pd_rd_w=G5wrf&amp;pd_rd_wg=dgHug&amp;pf_rd_p=12129333-2117-4490-9c17-6d31baf0582a&amp;pf_rd_r=R231VMB7MN5HFY3CYYMF&amp;qid=1691527561&amp;sr=8-3-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thermo Funtainer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/THERMOS-FUNTAINER-Ounce-Stainless-Steel/dp/B08NCVT244/?_encoding=UTF8&amp;pd_rd_w=mt2Uz&amp;content-id=amzn1.sym.59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_p=59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_r=V6B2WJ56S9ZNKER7M4XC&amp;pd_rd_wg=bW0kF&amp;pd_rd_r=39e09029-a613-414c-b146-91b724c083f6&amp;ref_=pd_gw_exports_top_sellers_unrec&amp;th=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoppy The Bunny</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Westminster-SG_B01D0JLWVS_US-Hoppy-Mechanical-Bunny/dp/B01D0JLWVS/?_encoding=UTF8&amp;pd_rd_w=nr0zp&amp;content-id=amzn1.sym.59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_p=59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_r=MDE7HD64PQJ567XNG0AN&amp;pd_rd_wg=c2YVK&amp;pd_rd_r=a11c1dd4-e1b0-4b95-8f14-c0394d94c9ad&amp;ref_=pd_gw_exports_top_sellers_unrec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MRbrew</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/MRbrew-American-System-Picnic-Chrome-Plated/dp/B07YV341NZ/ref=sr_1_5?crid=2HBGCH5YN2KYS&amp;keywords=party+pump&amp;qid=1691528197&amp;sprefix=party+pum%2Caps%2C215&amp;sr=8-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pokemon - Charizard - XY Evo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Pokemon-Charizard-108-Evolutions-Holo/dp/B01M4QJUOL/ref=sr_1_4?crid=H03KFBNOM58D&amp;keywords=charizard+card&amp;qid=1691528233&amp;sprefix=charizard+ca%2Caps%2C203&amp;sr=8-4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cinderace Vmax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Cinderace-Vmax-Rebel-Clash-Pokemon/dp/B09T32S5LP/ref=sr_1_1?crid=SY440FCJZJ2D&amp;keywords=cinderace+vmax&amp;qid=1691528305&amp;sprefix=cinderance+vma%2Caps%2C199&amp;sr=8-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Officemate Letter Size Wall File</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amazon.com/Officemate-26092-Letter-Recycled-Black/dp/B003G4MNUW/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_59c541b0_dt&amp;pd_rd_w=jLN8Q&amp;content-id=amzn1.sym.81a68cec-8afc-4296-99f7-78cf5ddc15b5&amp;pf_rd_p=81a68cec-8afc-4296-99f7-78cf5ddc15b5&amp;pf_rd_r=2QVJ5A934TS0CZGC7TJR&amp;pd_rd_wg=qJq5x&amp;pd_rd_r=91a44954-47ba-4559-9e57-788901623031&amp;ref_=pd_gw_unk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29517</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -508,7 +587,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -561,49 +640,49 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>17</x:v>
@@ -611,58 +690,242 @@
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B10"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>10</x:v>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>58</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Output/output_datos_buscar.xlsx
+++ b/Data/Output/output_datos_buscar.xlsx
@@ -35,7 +35,7 @@
     <x:t>https://www.amazon.com/Unidapt-Adapter-Grounded-Adaptor-Converter/dp/B08D741PV6/?_encoding=UTF8&amp;pd_rd_w=jijKL&amp;content-id=amzn1.sym.59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_p=59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_r=2C0A240NGGT8EAAY6T8W&amp;pd_rd_wg=9bQhE&amp;pd_rd_r=2c145a53-a3ce-40e4-9153-dd68bc9aa91d&amp;ref_=pd_gw_exports_top_sellers_unrec&amp;language=es_US&amp;currency=CLP</x:t>
   </x:si>
   <x:si>
-    <x:t>7440</x:t>
+    <x:t>7471</x:t>
   </x:si>
   <x:si>
     <x:t>SI</x:t>
@@ -47,7 +47,7 @@
     <x:t>https://www.amazon.com/-/es/SAMSUNG-adaptador-microSDXC-MB-ME256KA-AM/dp/B09B1GXM16/?_encoding=UTF8&amp;pd_rd_w=AwyqZ&amp;content-id=amzn1.sym.10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_p=10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_r=2EKX99B49VGGRQT8FTMG&amp;pd_rd_wg=Ubz32&amp;pd_rd_r=33df8239-3efa-425c-a17c-d80ff98a173b&amp;ref_=pd_gw_exports_top_sellers_unrec</x:t>
   </x:si>
   <x:si>
-    <x:t>27311</x:t>
+    <x:t>27424</x:t>
   </x:si>
   <x:si>
     <x:t>KSIPZE Tira de luces LED de 100 pies</x:t>
@@ -56,7 +56,7 @@
     <x:t>https://www.amazon.com/-/es/sincronizaci%C3%B3n-aplicaci%C3%B3n-inteligente-dormitorio-iluminaci%C3%B3n/dp/B09V366BDY/ref=sr_1_5?_encoding=UTF8&amp;content-id=amzn1.sym.7738c60e-a1c7-4678-9812-5d82959d511c&amp;keywords=strip+lighting&amp;pd_rd_r=a61aa239-6f17-4b90-b50e-30ac73d896ec&amp;pd_rd_w=GCgMp&amp;pd_rd_wg=8Tbic&amp;pf_rd_p=7738c60e-a1c7-4678-9812-5d82959d511c&amp;pf_rd_r=WXPCKCN6VR02D770X6QB&amp;qid=1691511023&amp;sr=8-5</x:t>
   </x:si>
   <x:si>
-    <x:t>11164</x:t>
+    <x:t>11211</x:t>
   </x:si>
   <x:si>
     <x:t>Black &amp; Decker Horno tostador</x:t>
@@ -65,7 +65,7 @@
     <x:t>https://www.amazon.com/Black-Decker-Horno-tostador-Posiciones/dp/B0043E6PLC/ref=sr_1_2_sspa?__mk_es_US=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=294JUCGTJ8SVX&amp;keywords=oven&amp;qid=1691511097&amp;sprefix=ov%2Caps%2C210&amp;sr=8-2-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</x:t>
   </x:si>
   <x:si>
-    <x:t>83794</x:t>
+    <x:t>84143</x:t>
   </x:si>
   <x:si>
     <x:t>NO</x:t>
@@ -77,7 +77,7 @@
     <x:t>https://www.amazon.com/-/es/Speedster-SWFT-Radeon-6600-CORE/dp/B09HHLX543/?_encoding=UTF8&amp;pd_rd_w=NQ3Jj&amp;content-id=amzn1.sym.10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_p=10f16e90-d621-4a53-9c61-544e5c741acc&amp;pf_rd_r=H7T3R6A6NRXSEGA806SJ&amp;pd_rd_wg=VsEIi&amp;pd_rd_r=8e02ff95-d2c0-4b6f-a03f-3c0e37c5d72b&amp;ref_=pd_gw_exports_top_sellers_unrec</x:t>
   </x:si>
   <x:si>
-    <x:t>186221</x:t>
+    <x:t>186997</x:t>
   </x:si>
   <x:si>
     <x:t>Flopping Fish</x:t>
@@ -95,7 +95,7 @@
     <x:t>https://www.amazon.com/Masterworks-Publishing/dp/B09XDKH164/ref=sr_1_4_sspa?__mk_es_US=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=LP1VB31Z5UX5&amp;keywords=sheet+music&amp;qid=1691524986&amp;sprefix=sheet+musi%2Caps%2C205&amp;sr=8-4-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</x:t>
   </x:si>
   <x:si>
-    <x:t>14368</x:t>
+    <x:t>14456</x:t>
   </x:si>
   <x:si>
     <x:t>Mueller 7-inch Meat Cleaver Knife</x:t>
@@ -104,7 +104,7 @@
     <x:t>https://www.amazon.com/SS-77/dp/B08BX7FMQN/ref=sxin_16_pa_sp_search_thematic_sspa?__mk_es_US=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;_encoding=UTF8&amp;content-id=amzn1.sym.1c86ab1a-a73c-4131-85f1-15bd92ae152d%3Aamzn1.sym.1c86ab1a-a73c-4131-85f1-15bd92ae152d&amp;crid=1I6JCWDEKEH2U&amp;cv_ct_cx=home+and+kitchen&amp;keywords=hogar+y+cocina&amp;pd_rd_i=B08BX7FMQN&amp;pd_rd_r=9e6d404a-6a8f-42eb-b5d8-c1690bcb9052&amp;pd_rd_w=9oCTs&amp;pd_rd_wg=1Erix&amp;pf_rd_p=1c86ab1a-a73c-4131-85f1-15bd92ae152d&amp;pf_rd_r=VD71XTE1EH7WYGT6DQ1T&amp;qid=1691525059&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=hogar%2Caps%2C278&amp;sr=1-2-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM&amp;psc=1&amp;smid=A8I6IE7ASKFON</x:t>
   </x:si>
   <x:si>
-    <x:t>14889</x:t>
+    <x:t>14951</x:t>
   </x:si>
   <x:si>
     <x:t>Utopia Towels 6 Pack Premium Hand Towels Set</x:t>
@@ -113,7 +113,7 @@
     <x:t>https://www.amazon.com/Utopia-Towels-Premium-Grey-Hand/dp/B083KKF8F8/ref=sr_1_1_sspa?crid=1KDZABCENUGOT&amp;keywords=hand%2Btowel&amp;qid=1691525294&amp;sprefix=hand%2Btowe%2Caps%2C290&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
   </x:si>
   <x:si>
-    <x:t>17124</x:t>
+    <x:t>17195</x:t>
   </x:si>
   <x:si>
     <x:t>Amazon Basics Neoprene Workout Dumbbell</x:t>
@@ -128,7 +128,7 @@
     <x:t>https://www.amazon.com/Google-Pixel-7a-Unlocked-Smartphone/dp/B0BZ9T8R41/ref=sr_1_1_sspa?crid=2PWFCK2DVYVOQ&amp;keywords=nothing%2Bphone&amp;qid=1691525818&amp;sprefix=nothing%2Bpho%2Caps%2C266&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</x:t>
   </x:si>
   <x:si>
-    <x:t>464644</x:t>
+    <x:t>466580</x:t>
   </x:si>
   <x:si>
     <x:t>Flameless LED Tea Light Candles</x:t>
@@ -149,7 +149,7 @@
     <x:t>https://www.amazon.com/THERMOS-FUNTAINER-Ounce-Stainless-Steel/dp/B08NCVT244/?_encoding=UTF8&amp;pd_rd_w=mt2Uz&amp;content-id=amzn1.sym.59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_p=59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_r=V6B2WJ56S9ZNKER7M4XC&amp;pd_rd_wg=bW0kF&amp;pd_rd_r=39e09029-a613-414c-b146-91b724c083f6&amp;ref_=pd_gw_exports_top_sellers_unrec&amp;th=1</x:t>
   </x:si>
   <x:si>
-    <x:t>13399</x:t>
+    <x:t>13455</x:t>
   </x:si>
   <x:si>
     <x:t>Hoppy The Bunny</x:t>
@@ -158,7 +158,7 @@
     <x:t>https://www.amazon.com/Westminster-SG_B01D0JLWVS_US-Hoppy-Mechanical-Bunny/dp/B01D0JLWVS/?_encoding=UTF8&amp;pd_rd_w=nr0zp&amp;content-id=amzn1.sym.59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_p=59e06f17-139e-49a4-ada7-b8439f50bb02&amp;pf_rd_r=MDE7HD64PQJ567XNG0AN&amp;pd_rd_wg=c2YVK&amp;pd_rd_r=a11c1dd4-e1b0-4b95-8f14-c0394d94c9ad&amp;ref_=pd_gw_exports_top_sellers_unrec</x:t>
   </x:si>
   <x:si>
-    <x:t>13306</x:t>
+    <x:t>13362</x:t>
   </x:si>
   <x:si>
     <x:t>MRbrew</x:t>
@@ -167,7 +167,7 @@
     <x:t>https://www.amazon.com/MRbrew-American-System-Picnic-Chrome-Plated/dp/B07YV341NZ/ref=sr_1_5?crid=2HBGCH5YN2KYS&amp;keywords=party+pump&amp;qid=1691528197&amp;sprefix=party+pum%2Caps%2C215&amp;sr=8-5</x:t>
   </x:si>
   <x:si>
-    <x:t>39099</x:t>
+    <x:t>39262</x:t>
   </x:si>
   <x:si>
     <x:t>Pokemon - Charizard - XY Evo</x:t>
@@ -176,7 +176,7 @@
     <x:t>https://www.amazon.com/Pokemon-Charizard-108-Evolutions-Holo/dp/B01M4QJUOL/ref=sr_1_4?crid=H03KFBNOM58D&amp;keywords=charizard+card&amp;qid=1691528233&amp;sprefix=charizard+ca%2Caps%2C203&amp;sr=8-4</x:t>
   </x:si>
   <x:si>
-    <x:t>62182</x:t>
+    <x:t>71025</x:t>
   </x:si>
   <x:si>
     <x:t>Cinderace Vmax</x:t>
@@ -191,7 +191,7 @@
     <x:t>https://www.amazon.com/Officemate-26092-Letter-Recycled-Black/dp/B003G4MNUW/?_encoding=UTF8&amp;_ref=dlx_gate_sd_dcl_tlt_59c541b0_dt&amp;pd_rd_w=jLN8Q&amp;content-id=amzn1.sym.81a68cec-8afc-4296-99f7-78cf5ddc15b5&amp;pf_rd_p=81a68cec-8afc-4296-99f7-78cf5ddc15b5&amp;pf_rd_r=2QVJ5A934TS0CZGC7TJR&amp;pd_rd_wg=qJq5x&amp;pd_rd_r=91a44954-47ba-4559-9e57-788901623031&amp;ref_=pd_gw_unk</x:t>
   </x:si>
   <x:si>
-    <x:t>29517</x:t>
+    <x:t>29640</x:t>
   </x:si>
 </x:sst>
 </file>
